--- a/biology/Biologie cellulaire et moléculaire/Élément_de_réponse_au_fer/Élément_de_réponse_au_fer.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Élément_de_réponse_au_fer/Élément_de_réponse_au_fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ment_de_r%C3%A9ponse_au_fer</t>
+          <t>Élément_de_réponse_au_fer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'élément de réponse au fer ou IRE (iron-response élément) est un segment d'ARN, capable d'adopter une structure en tige-boucle spécifique. On trouve un ou plusieurs IRE sur les ARNm codant des protéines impliquées dans la régulation de la concentration intracellulaire de fer chez de nombreux eucaryotes : la ferritine, le récepteur de la transferrine TfR1, l'enzyme ALAS2, l'aconitase ACO2, l'enzyme CDC14A (en)[1], la ferroportine ou encore le transporteur DMT1 (en).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élément de réponse au fer ou IRE (iron-response élément) est un segment d'ARN, capable d'adopter une structure en tige-boucle spécifique. On trouve un ou plusieurs IRE sur les ARNm codant des protéines impliquées dans la régulation de la concentration intracellulaire de fer chez de nombreux eucaryotes : la ferritine, le récepteur de la transferrine TfR1, l'enzyme ALAS2, l'aconitase ACO2, l'enzyme CDC14A (en), la ferroportine ou encore le transporteur DMT1 (en).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ment_de_r%C3%A9ponse_au_fer</t>
+          <t>Élément_de_réponse_au_fer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les IRE des différents ARNm ne sont pas tous constitués de la même séquence de nucléotides. Par contre, ils contiennent tous la séquence consensuelle 5'-CAGUGN-3'[3] (ou N représente U, C ou A)[4] constituant la boucle de l'IRE.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les IRE des différents ARNm ne sont pas tous constitués de la même séquence de nucléotides. Par contre, ils contiennent tous la séquence consensuelle 5'-CAGUGN-3' (ou N représente U, C ou A) constituant la boucle de l'IRE.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ment_de_r%C3%A9ponse_au_fer</t>
+          <t>Élément_de_réponse_au_fer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Mécanisme de régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les IRE sont reconnus par les protéines de régulation du fer (ou IRP) qui exercent ainsi un contrôle sur la traduction de ces protéines impliquées dans l'homéostasie du fer[5],[6]. Selon l'emplacement de l'IRE sur l'ARN messager, l'effet de la fixation d'un IRP varie.
-Lorsqu'un IRE se situe dans la région 5'-non traduite d'un ARN messager (comme c'est le cas chez les deux sous-unités de la ferritine) la fixation d'un IRP sur cet IRE empêche l'association de la petite sous-unité du ribosome avec l'ARNm, inhibant alors la traduction de cet ARNm[3].
-Si un ou plusieurs IRE sont présents dans la région 3'-non traduite d'un ARNm, comme c'est le cas chez le récepteur de la transferrine, la présence d'IRP sur ces IRE stabilise l'ARNm correspondant en empêchant sa dégradation. Cette fixation agit donc de manière positive sur la traduction de la protéine correspondante[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les IRE sont reconnus par les protéines de régulation du fer (ou IRP) qui exercent ainsi un contrôle sur la traduction de ces protéines impliquées dans l'homéostasie du fer,. Selon l'emplacement de l'IRE sur l'ARN messager, l'effet de la fixation d'un IRP varie.
+Lorsqu'un IRE se situe dans la région 5'-non traduite d'un ARN messager (comme c'est le cas chez les deux sous-unités de la ferritine) la fixation d'un IRP sur cet IRE empêche l'association de la petite sous-unité du ribosome avec l'ARNm, inhibant alors la traduction de cet ARNm.
+Si un ou plusieurs IRE sont présents dans la région 3'-non traduite d'un ARNm, comme c'est le cas chez le récepteur de la transferrine, la présence d'IRP sur ces IRE stabilise l'ARNm correspondant en empêchant sa dégradation. Cette fixation agit donc de manière positive sur la traduction de la protéine correspondante.
 </t>
         </is>
       </c>
